--- a/PTBR/Lang/PTBR/Game/Floor.xlsx
+++ b/PTBR/Lang/PTBR/Game/Floor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85495CBA-719F-4D2B-84DF-F8C70A5B3E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265D9E0-F9CB-45C2-9543-CCAC33287E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
@@ -875,6 +875,36 @@
   </si>
   <si>
     <t>Piso de Arbusto</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>EA 23.143</t>
+  </si>
+  <si>
+    <t>red algae floor</t>
+  </si>
+  <si>
+    <t>紅藻の床</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>EA 23.145</t>
+  </si>
+  <si>
+    <t>seabed floor</t>
+  </si>
+  <si>
+    <t>海底の床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piso de Alga Vermelha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piso do Fundo do Mar  </t>
   </si>
 </sst>
 </file>
@@ -1252,11 +1282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,6 +3370,40 @@
         <v>50</v>
       </c>
     </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" t="s">
+        <v>286</v>
+      </c>
+      <c r="E124" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>288</v>
+      </c>
+      <c r="B125" t="s">
+        <v>289</v>
+      </c>
+      <c r="C125" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" t="s">
+        <v>290</v>
+      </c>
+      <c r="E125" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Floor.xlsx
+++ b/PTBR/Lang/PTBR/Game/Floor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265D9E0-F9CB-45C2-9543-CCAC33287E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4BD04A-168D-44E8-A3F8-40FAAF9610CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="2625" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor" sheetId="1" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,551 +1893,551 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
         <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
         <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
         <v>225</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
         <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
         <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
         <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
         <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
         <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
         <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
         <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
         <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
         <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
         <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
         <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
         <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
         <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
         <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
         <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
         <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>225</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
         <v>225</v>
@@ -2471,367 +2471,367 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
         <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
         <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D72" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>226</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
         <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
         <v>278</v>
@@ -2845,274 +2845,274 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E93" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C94" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
         <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
         <v>226</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E99" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E100" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
         <v>233</v>
       </c>
       <c r="C102" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D102" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
         <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B104" t="s">
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D104" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E104" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C105" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D105" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="E105" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="E106" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D107" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C108" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,7 +3405,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H125">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/Floor.xlsx
+++ b/PTBR/Lang/PTBR/Game/Floor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4BD04A-168D-44E8-A3F8-40FAAF9610CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE1A4E-4BA1-416A-A563-28640E57724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2625" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="2145" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="312">
   <si>
     <t>id</t>
   </si>
@@ -905,13 +905,67 @@
   </si>
   <si>
     <t xml:space="preserve">Piso do Fundo do Mar  </t>
+  </si>
+  <si>
+    <t>EA 23.168</t>
+  </si>
+  <si>
+    <t>chocolate floor</t>
+  </si>
+  <si>
+    <t>チョコレートの床</t>
+  </si>
+  <si>
+    <t>EA 23.169</t>
+  </si>
+  <si>
+    <t>biscuit floor</t>
+  </si>
+  <si>
+    <t>ビスケットの床</t>
+  </si>
+  <si>
+    <t>EA 23.183</t>
+  </si>
+  <si>
+    <t>mushroom floor</t>
+  </si>
+  <si>
+    <t>キノコの床</t>
+  </si>
+  <si>
+    <t>EA 23.234</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Piso de chocolate</t>
+  </si>
+  <si>
+    <t>Piso de Biscoito</t>
+  </si>
+  <si>
+    <t>Piso de Cogumelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1282,21 +1336,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1364,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1398,7 +1452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1432,7 +1486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1449,7 +1503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1483,7 +1537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1534,7 +1588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1551,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1585,7 +1639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1619,7 +1673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1653,7 +1707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1670,7 +1724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1741,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1704,7 +1758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1721,7 +1775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1738,7 +1792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1755,7 +1809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1772,7 +1826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1789,7 +1843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1806,7 +1860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1823,7 +1877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1840,7 +1894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1857,7 +1911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1874,7 +1928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1891,7 +1945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -1908,7 +1962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1925,7 +1979,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -1942,7 +1996,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -1959,7 +2013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -1976,7 +2030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -1993,7 +2047,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2010,7 +2064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -2027,7 +2081,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -2044,7 +2098,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2061,7 +2115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2078,7 +2132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -2095,7 +2149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -2112,7 +2166,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>120</v>
       </c>
@@ -2129,7 +2183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -2146,7 +2200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -2163,7 +2217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -2180,7 +2234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -2197,7 +2251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>130</v>
       </c>
@@ -2214,7 +2268,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -2231,7 +2285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -2248,7 +2302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -2265,7 +2319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -2282,7 +2336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -2299,7 +2353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -2316,7 +2370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -2333,7 +2387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -2350,7 +2404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -2367,7 +2421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -2384,7 +2438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -2401,7 +2455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>142</v>
       </c>
@@ -2418,7 +2472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -2435,7 +2489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -2452,7 +2506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -2469,7 +2523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -2486,7 +2540,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -2503,7 +2557,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -2520,7 +2574,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -2537,7 +2591,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>172</v>
       </c>
@@ -2554,7 +2608,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -2571,7 +2625,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -2588,7 +2642,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -2605,7 +2659,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -2622,7 +2676,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -2639,7 +2693,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -2656,7 +2710,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -2673,7 +2727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2690,7 +2744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2707,7 +2761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2724,7 +2778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -2741,7 +2795,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -2758,7 +2812,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>162</v>
       </c>
@@ -2775,7 +2829,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -2792,7 +2846,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>166</v>
       </c>
@@ -2809,7 +2863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -2826,7 +2880,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -2843,7 +2897,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -2860,7 +2914,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -2877,7 +2931,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -2894,7 +2948,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -2911,7 +2965,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -2928,7 +2982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2945,7 +2999,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -2962,7 +3016,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -2979,7 +3033,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>198</v>
       </c>
@@ -2996,7 +3050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -3013,7 +3067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -3030,7 +3084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -3047,7 +3101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -3064,7 +3118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -3081,7 +3135,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -3098,7 +3152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -3115,7 +3169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -3132,7 +3186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>207</v>
       </c>
@@ -3149,7 +3203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>208</v>
       </c>
@@ -3166,7 +3220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>209</v>
       </c>
@@ -3183,7 +3237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>210</v>
       </c>
@@ -3200,7 +3254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>211</v>
       </c>
@@ -3217,7 +3271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>212</v>
       </c>
@@ -3234,7 +3288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>215</v>
       </c>
@@ -3251,7 +3305,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>218</v>
       </c>
@@ -3268,7 +3322,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>219</v>
       </c>
@@ -3285,7 +3339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>220</v>
       </c>
@@ -3302,7 +3356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>221</v>
       </c>
@@ -3319,7 +3373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -3336,7 +3390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>223</v>
       </c>
@@ -3353,7 +3407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -3370,7 +3424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>284</v>
       </c>
@@ -3387,7 +3441,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>288</v>
       </c>
@@ -3402,6 +3456,91 @@
       </c>
       <c r="E125" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>304</v>
+      </c>
+      <c r="B126" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" t="s">
+        <v>295</v>
+      </c>
+      <c r="E126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>305</v>
+      </c>
+      <c r="B127" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" t="s">
+        <v>298</v>
+      </c>
+      <c r="E127" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" t="s">
+        <v>300</v>
+      </c>
+      <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" t="s">
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
+        <v>311</v>
+      </c>
+      <c r="D129" t="s">
+        <v>301</v>
+      </c>
+      <c r="E129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" t="s">
+        <v>256</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/PTBR/Lang/PTBR/Game/Floor.xlsx
+++ b/PTBR/Lang/PTBR/Game/Floor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE1A4E-4BA1-416A-A563-28640E57724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DC540-4FCA-4C81-AD93-4EC4F1135DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="2145" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1339,18 +1339,18 @@
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,66 +1376,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1452,1622 +1461,1622 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" t="s">
         <v>256</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D68" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" t="s">
         <v>256</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D69" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" t="s">
         <v>256</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D70" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s">
         <v>256</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D71" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E71" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" t="s">
         <v>256</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D72" t="s">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E72" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
         <v>256</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D73" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" t="s">
-        <v>262</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" t="s">
         <v>256</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D74" t="s">
         <v>25</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
         <v>256</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D75" t="s">
         <v>25</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E75" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" t="s">
         <v>256</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D76" t="s">
         <v>25</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E76" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" t="s">
-        <v>274</v>
-      </c>
-      <c r="D42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" t="s">
-        <v>273</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" t="s">
-        <v>255</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" t="s">
-        <v>255</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" t="s">
-        <v>275</v>
-      </c>
-      <c r="D49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>124</v>
       </c>
-      <c r="B52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" t="s">
         <v>256</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D77" t="s">
         <v>25</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>125</v>
       </c>
-      <c r="B53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B78" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" t="s">
         <v>256</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D78" t="s">
         <v>25</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E78" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" t="s">
-        <v>271</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" t="s">
-        <v>225</v>
-      </c>
-      <c r="C56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" t="s">
-        <v>264</v>
-      </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>133</v>
       </c>
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" t="s">
         <v>256</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D79" t="s">
         <v>25</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>135</v>
       </c>
-      <c r="B60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" t="s">
         <v>256</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D80" t="s">
         <v>25</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" t="s">
-        <v>245</v>
-      </c>
-      <c r="D61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" t="s">
-        <v>245</v>
-      </c>
-      <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>138</v>
       </c>
-      <c r="B63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" t="s">
         <v>256</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D81" t="s">
         <v>25</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E81" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" t="s">
-        <v>245</v>
-      </c>
-      <c r="D64" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" t="s">
-        <v>225</v>
-      </c>
-      <c r="C65" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" t="s">
-        <v>263</v>
-      </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" t="s">
-        <v>225</v>
-      </c>
-      <c r="C67" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" t="s">
-        <v>225</v>
-      </c>
-      <c r="C68" t="s">
-        <v>263</v>
-      </c>
-      <c r="D68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" t="s">
-        <v>263</v>
-      </c>
-      <c r="D69" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" t="s">
-        <v>225</v>
-      </c>
-      <c r="C72" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" t="s">
-        <v>229</v>
-      </c>
-      <c r="C73" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" t="s">
-        <v>229</v>
-      </c>
-      <c r="C74" t="s">
-        <v>278</v>
-      </c>
-      <c r="D74" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" t="s">
-        <v>278</v>
-      </c>
-      <c r="D75" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" t="s">
-        <v>229</v>
-      </c>
-      <c r="C76" t="s">
-        <v>278</v>
-      </c>
-      <c r="D76" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" t="s">
-        <v>229</v>
-      </c>
-      <c r="C77" t="s">
-        <v>278</v>
-      </c>
-      <c r="D77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78" t="s">
-        <v>229</v>
-      </c>
-      <c r="C78" t="s">
-        <v>278</v>
-      </c>
-      <c r="D78" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" t="s">
-        <v>229</v>
-      </c>
-      <c r="C79" t="s">
-        <v>278</v>
-      </c>
-      <c r="D79" t="s">
-        <v>169</v>
-      </c>
-      <c r="E79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" t="s">
-        <v>230</v>
-      </c>
-      <c r="C80" t="s">
-        <v>278</v>
-      </c>
-      <c r="D80" t="s">
-        <v>169</v>
-      </c>
-      <c r="E80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" t="s">
-        <v>241</v>
-      </c>
-      <c r="D81" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>88</v>
-      </c>
-      <c r="B85" t="s">
-        <v>226</v>
-      </c>
-      <c r="C85" t="s">
-        <v>269</v>
-      </c>
-      <c r="D85" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D86" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" t="s">
-        <v>277</v>
-      </c>
-      <c r="D87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>162</v>
       </c>
       <c r="B88" t="s">
         <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>257</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>225</v>
+      </c>
+      <c r="C97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
         <v>226</v>
       </c>
-      <c r="C89" t="s">
-        <v>252</v>
-      </c>
-      <c r="D89" t="s">
-        <v>163</v>
-      </c>
-      <c r="E89" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" t="s">
-        <v>226</v>
-      </c>
-      <c r="C90" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" t="s">
-        <v>163</v>
-      </c>
-      <c r="E90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>167</v>
-      </c>
-      <c r="B91" t="s">
-        <v>226</v>
-      </c>
-      <c r="C91" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" t="s">
-        <v>163</v>
-      </c>
-      <c r="E91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" t="s">
-        <v>278</v>
-      </c>
-      <c r="D92" t="s">
-        <v>169</v>
-      </c>
-      <c r="E92" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" t="s">
-        <v>252</v>
-      </c>
-      <c r="D93" t="s">
-        <v>163</v>
-      </c>
-      <c r="E93" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>226</v>
-      </c>
-      <c r="C94" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" t="s">
-        <v>184</v>
-      </c>
-      <c r="E94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>226</v>
-      </c>
-      <c r="C95" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" t="s">
-        <v>226</v>
-      </c>
-      <c r="C96" t="s">
-        <v>279</v>
-      </c>
-      <c r="D96" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" t="s">
-        <v>226</v>
-      </c>
-      <c r="C97" t="s">
-        <v>280</v>
-      </c>
-      <c r="D97" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" t="s">
-        <v>231</v>
-      </c>
       <c r="C98" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D98" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D100" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="E101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D102" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -3101,452 +3110,443 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="B108" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="E108" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="E109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E110" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
         <v>236</v>
       </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="E111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D113" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D115" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="E115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C118" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D118" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C120" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C121" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D121" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D122" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B123" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D123" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="C124" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="D124" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="E124" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="C125" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="D126" t="s">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="E126" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="C127" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="E127" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="D128" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="E128" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="D129" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="E129" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>303</v>
-      </c>
-      <c r="C130" t="s">
-        <v>256</v>
-      </c>
-      <c r="D130" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H125">
-      <sortCondition ref="B2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H130">
+      <sortCondition ref="C2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Floor.xlsx
+++ b/PTBR/Lang/PTBR/Game/Floor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014705E-8E5A-4537-BC51-43E6B4A72D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EAA8DE-A1C7-4974-8743-ADD9A6AB4FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -968,16 +968,13 @@
   </si>
   <si>
     <t>129</t>
-  </si>
-  <si>
-    <t>piso de pedra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1351,18 +1348,18 @@
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131:C132"/>
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -1439,7 +1436,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1507,7 +1504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1524,7 +1521,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -1558,7 +1555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -1575,7 +1572,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -1609,7 +1606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -1643,7 +1640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1660,7 +1657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -1728,7 +1725,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1796,7 +1793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1881,7 +1878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +1929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1949,7 +1946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1966,7 +1963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1983,7 +1980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2000,7 +1997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2017,7 +2014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -2068,7 +2065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2119,7 +2116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2136,7 +2133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2153,7 +2150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2255,7 +2252,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -2272,7 +2269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -2289,7 +2286,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -2306,7 +2303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2357,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -2374,7 +2371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -2391,7 +2388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -2408,7 +2405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2493,7 +2490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -2561,7 +2558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -2603,7 +2600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>172</v>
       </c>
@@ -2620,7 +2617,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -2637,7 +2634,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -2671,7 +2668,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -2688,7 +2685,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>177</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -2739,7 +2736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>168</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -2773,7 +2770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -2790,7 +2787,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -2807,7 +2804,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -2824,7 +2821,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -2841,7 +2838,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2858,7 +2855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -2892,7 +2889,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>162</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -2943,7 +2940,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -2960,7 +2957,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -3028,7 +3025,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -3045,7 +3042,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -3062,7 +3059,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -3079,7 +3076,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -3113,7 +3110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -3164,7 +3161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -3181,7 +3178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -3198,7 +3195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -3215,7 +3212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>210</v>
       </c>
@@ -3232,7 +3229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>211</v>
       </c>
@@ -3249,7 +3246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -3266,7 +3263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>209</v>
       </c>
@@ -3283,7 +3280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>212</v>
       </c>
@@ -3300,7 +3297,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>215</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>218</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>219</v>
       </c>
@@ -3351,7 +3348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>220</v>
       </c>
@@ -3368,7 +3365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -3385,7 +3382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>223</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>221</v>
       </c>
@@ -3436,7 +3433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>284</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>288</v>
       </c>
@@ -3470,7 +3467,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>304</v>
       </c>
@@ -3487,7 +3484,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>305</v>
       </c>
@@ -3504,7 +3501,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>306</v>
       </c>
@@ -3521,7 +3518,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>307</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>308</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>312</v>
       </c>
@@ -3563,7 +3560,7 @@
         <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
         <v>25</v>
@@ -3572,7 +3569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>314</v>
       </c>
@@ -3580,7 +3577,7 @@
         <v>313</v>
       </c>
       <c r="C132" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="D132" t="s">
         <v>25</v>
